--- a/BOM/sensor_board_BOM.xlsx
+++ b/BOM/sensor_board_BOM.xlsx
@@ -220,7 +220,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +230,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,7 +269,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -273,14 +279,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -648,25 +657,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="D2" s="4" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="D2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="28.5" customHeight="1">
       <c r="A6" s="2" t="s">
@@ -697,96 +706,96 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="3">
+    <row r="7" spans="1:11" s="6" customFormat="1">
+      <c r="A7" s="5">
         <v>1</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="3">
+    <row r="8" spans="1:11" s="6" customFormat="1">
+      <c r="A8" s="5">
         <v>2</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="3">
+    <row r="9" spans="1:11" s="6" customFormat="1">
+      <c r="A9" s="5">
         <v>3</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
